--- a/Sonia_IndiaLab_English_20200706.xlsx
+++ b/Sonia_IndiaLab_English_20200706.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="477">
   <si>
     <t>ビックカメラ</t>
     <phoneticPr fontId="1"/>
@@ -2043,38 +2043,6 @@
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>Working fine</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>Import Document Need tocheck functionality</t>
     </r>
   </si>
   <si>
@@ -2604,25 +2572,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -3806,10 +3774,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="50"/>
-      <c r="B68" s="51" t="s">
+      <c r="B68" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="51" t="s">
+      <c r="C68" s="53" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="3" t="s">
@@ -3818,8 +3786,8 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="50"/>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
       <c r="D69" s="3" t="s">
         <v>130</v>
       </c>
@@ -3838,10 +3806,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="50"/>
-      <c r="B71" s="51" t="s">
+      <c r="B71" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C71" s="51" t="s">
+      <c r="C71" s="53" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="3" t="s">
@@ -3850,8 +3818,8 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="50"/>
-      <c r="B72" s="51"/>
-      <c r="C72" s="51"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="53"/>
       <c r="D72" s="3" t="s">
         <v>130</v>
       </c>
@@ -3896,10 +3864,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="50"/>
-      <c r="B76" s="51" t="s">
+      <c r="B76" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C76" s="51" t="s">
+      <c r="C76" s="53" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="3" t="s">
@@ -3908,18 +3876,18 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="50"/>
-      <c r="B77" s="51"/>
-      <c r="C77" s="51"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="53"/>
       <c r="D77" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="50"/>
-      <c r="B78" s="51" t="s">
+      <c r="B78" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="51" t="s">
+      <c r="C78" s="53" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="3" t="s">
@@ -3928,8 +3896,8 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="50"/>
-      <c r="B79" s="51"/>
-      <c r="C79" s="51"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="53"/>
       <c r="D79" s="3" t="s">
         <v>130</v>
       </c>
@@ -3974,10 +3942,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="50"/>
-      <c r="B83" s="52" t="s">
+      <c r="B83" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="52" t="s">
+      <c r="C83" s="51" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="3" t="s">
@@ -3986,8 +3954,8 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="50"/>
-      <c r="B84" s="53"/>
-      <c r="C84" s="53"/>
+      <c r="B84" s="52"/>
+      <c r="C84" s="52"/>
       <c r="D84" s="3" t="s">
         <v>130</v>
       </c>
@@ -4023,6 +3991,20 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A13:A48"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="A49:A60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A67:A74"/>
+    <mergeCell ref="B68:B69"/>
     <mergeCell ref="A82:A86"/>
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="C83:C84"/>
@@ -4031,20 +4013,6 @@
     <mergeCell ref="C78:C79"/>
     <mergeCell ref="A75:A81"/>
     <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="A49:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A67:A74"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A13:A48"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.27559055118110237"/>
@@ -4110,7 +4078,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="50"/>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="56" t="s">
         <v>171</v>
       </c>
       <c r="C3" s="50" t="s">
@@ -4123,7 +4091,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="50"/>
-      <c r="B4" s="55"/>
+      <c r="B4" s="57"/>
       <c r="C4" s="50"/>
       <c r="D4" s="10"/>
       <c r="E4" s="3" t="s">
@@ -4132,7 +4100,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="50"/>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="56" t="s">
         <v>172</v>
       </c>
       <c r="C5" s="50" t="s">
@@ -4145,7 +4113,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="50"/>
-      <c r="B6" s="55"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="50"/>
       <c r="D6" s="10"/>
       <c r="E6" s="3" t="s">
@@ -4971,10 +4939,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="50"/>
-      <c r="B68" s="56" t="s">
+      <c r="B68" s="54" t="s">
         <v>217</v>
       </c>
-      <c r="C68" s="51" t="s">
+      <c r="C68" s="53" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="13"/>
@@ -4984,8 +4952,8 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="50"/>
-      <c r="B69" s="57"/>
-      <c r="C69" s="51"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="53"/>
       <c r="D69" s="13"/>
       <c r="E69" s="3" t="s">
         <v>130</v>
@@ -5006,10 +4974,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="50"/>
-      <c r="B71" s="51" t="s">
+      <c r="B71" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="C71" s="51" t="s">
+      <c r="C71" s="53" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="13"/>
@@ -5019,8 +4987,8 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="50"/>
-      <c r="B72" s="51"/>
-      <c r="C72" s="51"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="53"/>
       <c r="D72" s="13"/>
       <c r="E72" s="3" t="s">
         <v>130</v>
@@ -5069,10 +5037,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="50"/>
-      <c r="B76" s="56" t="s">
+      <c r="B76" s="54" t="s">
         <v>217</v>
       </c>
-      <c r="C76" s="51" t="s">
+      <c r="C76" s="53" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="13"/>
@@ -5082,8 +5050,8 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="50"/>
-      <c r="B77" s="57"/>
-      <c r="C77" s="51"/>
+      <c r="B77" s="55"/>
+      <c r="C77" s="53"/>
       <c r="D77" s="13"/>
       <c r="E77" s="3" t="s">
         <v>130</v>
@@ -5091,10 +5059,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="50"/>
-      <c r="B78" s="51" t="s">
+      <c r="B78" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="C78" s="51" t="s">
+      <c r="C78" s="53" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="13"/>
@@ -5104,8 +5072,8 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="50"/>
-      <c r="B79" s="51"/>
-      <c r="C79" s="51"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="53"/>
       <c r="D79" s="13"/>
       <c r="E79" s="3" t="s">
         <v>130</v>
@@ -5154,10 +5122,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="50"/>
-      <c r="B83" s="52" t="s">
+      <c r="B83" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="C83" s="52" t="s">
+      <c r="C83" s="51" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="11"/>
@@ -5167,8 +5135,8 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="50"/>
-      <c r="B84" s="53"/>
-      <c r="C84" s="53"/>
+      <c r="B84" s="52"/>
+      <c r="C84" s="52"/>
       <c r="D84" s="12"/>
       <c r="E84" s="3" t="s">
         <v>130</v>
@@ -5223,6 +5191,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A13:A48"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
     <mergeCell ref="A82:A86"/>
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="C83:C84"/>
@@ -5239,12 +5213,6 @@
     <mergeCell ref="C76:C77"/>
     <mergeCell ref="B78:B79"/>
     <mergeCell ref="C78:C79"/>
-    <mergeCell ref="A13:A48"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
@@ -22964,7 +22932,7 @@
         <v>328</v>
       </c>
       <c r="J2" s="47" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -22994,7 +22962,7 @@
         <v>328</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -24484,7 +24452,7 @@
         <v>325</v>
       </c>
       <c r="J58" s="48" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -24605,8 +24573,8 @@
       <c r="I62" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="J62" s="21" t="s">
-        <v>473</v>
+      <c r="J62" s="49" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -24666,7 +24634,7 @@
         <v>325</v>
       </c>
       <c r="J64" s="49" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -24812,7 +24780,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="56" t="s">
         <v>166</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -24823,7 +24791,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="55"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="21" t="s">
         <v>202</v>
       </c>

--- a/Sonia_IndiaLab_English_20200706.xlsx
+++ b/Sonia_IndiaLab_English_20200706.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\Sonia Quality Assurance\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17941CB-C3C4-4497-A2C8-ADE41C62B19C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アプリ配置 (必須)" sheetId="3" r:id="rId1"/>
@@ -14,6 +20,8 @@
     <sheet name="Ini File Details" sheetId="12" r:id="rId5"/>
     <sheet name="App_Issue" sheetId="10" r:id="rId6"/>
     <sheet name="DataBase_Details" sheetId="13" r:id="rId7"/>
+    <sheet name="Table_Missing" sheetId="14" r:id="rId8"/>
+    <sheet name="Field Missing" sheetId="15" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Ini File Details'!$A$1:$J$64</definedName>
@@ -27,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="485">
   <si>
     <t>ビックカメラ</t>
     <phoneticPr fontId="1"/>
@@ -2111,12 +2119,36 @@
   <si>
     <t>Import Document Need tocheck functionality</t>
   </si>
+  <si>
+    <t>Database File Name</t>
+  </si>
+  <si>
+    <t>Table_Name</t>
+  </si>
+  <si>
+    <t>best_wrn_data2.sql</t>
+  </si>
+  <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>isdt</t>
+  </si>
+  <si>
+    <t>isdt2</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>Table Missing, But find table in another two database best_intl.sql and best_wrn_new.sql, So combined two table in to one table reason is field and data type mismatch, Added one field Securities_no</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2430,7 +2462,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2572,25 +2604,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -2640,6 +2672,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2701,7 +2739,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2733,9 +2771,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2767,6 +2823,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2942,7 +3016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2956,7 +3030,7 @@
       <selection pane="bottomRight" activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.25" bestFit="1" customWidth="1"/>
@@ -2964,7 +3038,7 @@
     <col min="4" max="4" width="27.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -2976,7 +3050,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
@@ -2990,7 +3064,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="50"/>
       <c r="B3" s="50" t="s">
         <v>14</v>
@@ -3002,7 +3076,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="50"/>
       <c r="B4" s="50"/>
       <c r="C4" s="50"/>
@@ -3010,7 +3084,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="50"/>
       <c r="B5" s="50" t="s">
         <v>9</v>
@@ -3022,7 +3096,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="50"/>
       <c r="B6" s="50"/>
       <c r="C6" s="50"/>
@@ -3030,7 +3104,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="50"/>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -3042,7 +3116,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="50"/>
       <c r="B8" s="3" t="s">
         <v>118</v>
@@ -3054,7 +3128,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="50"/>
       <c r="B9" s="3" t="s">
         <v>119</v>
@@ -3066,7 +3140,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="50"/>
       <c r="B10" s="3" t="s">
         <v>120</v>
@@ -3078,7 +3152,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="50"/>
       <c r="B11" s="3" t="s">
         <v>121</v>
@@ -3090,7 +3164,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="50"/>
       <c r="B12" s="1" t="s">
         <v>122</v>
@@ -3102,7 +3176,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="50" t="s">
         <v>1</v>
       </c>
@@ -3116,7 +3190,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="50"/>
       <c r="B14" s="1" t="s">
         <v>47</v>
@@ -3128,7 +3202,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="50"/>
       <c r="B15" s="1" t="s">
         <v>51</v>
@@ -3140,7 +3214,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="50"/>
       <c r="B16" s="1" t="s">
         <v>53</v>
@@ -3152,7 +3226,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="50"/>
       <c r="B17" s="1" t="s">
         <v>66</v>
@@ -3164,7 +3238,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="50"/>
       <c r="B18" s="1" t="s">
         <v>16</v>
@@ -3176,7 +3250,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="50"/>
       <c r="B19" s="1" t="s">
         <v>62</v>
@@ -3188,7 +3262,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="50"/>
       <c r="B20" s="1" t="s">
         <v>18</v>
@@ -3200,7 +3274,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="50"/>
       <c r="B21" s="3" t="s">
         <v>55</v>
@@ -3212,7 +3286,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="50"/>
       <c r="B22" s="1" t="s">
         <v>57</v>
@@ -3224,7 +3298,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="50"/>
       <c r="B23" s="1" t="s">
         <v>59</v>
@@ -3236,7 +3310,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="50"/>
       <c r="B24" s="1" t="s">
         <v>70</v>
@@ -3248,7 +3322,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="50"/>
       <c r="B25" s="1" t="s">
         <v>43</v>
@@ -3260,7 +3334,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="50"/>
       <c r="B26" s="1" t="s">
         <v>84</v>
@@ -3272,7 +3346,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="50"/>
       <c r="B27" s="1" t="s">
         <v>80</v>
@@ -3284,7 +3358,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="50"/>
       <c r="B28" s="1" t="s">
         <v>82</v>
@@ -3296,7 +3370,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="50"/>
       <c r="B29" s="1" t="s">
         <v>88</v>
@@ -3308,7 +3382,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="50"/>
       <c r="B30" s="1" t="s">
         <v>72</v>
@@ -3320,7 +3394,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="50"/>
       <c r="B31" s="1" t="s">
         <v>74</v>
@@ -3332,7 +3406,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="50"/>
       <c r="B32" s="1" t="s">
         <v>76</v>
@@ -3344,7 +3418,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="50"/>
       <c r="B33" s="1" t="s">
         <v>78</v>
@@ -3356,7 +3430,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="50"/>
       <c r="B34" s="1" t="s">
         <v>69</v>
@@ -3368,7 +3442,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="50"/>
       <c r="B35" s="3" t="s">
         <v>86</v>
@@ -3380,7 +3454,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="50"/>
       <c r="B36" s="3" t="s">
         <v>44</v>
@@ -3392,7 +3466,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="50"/>
       <c r="B37" s="3" t="s">
         <v>44</v>
@@ -3404,7 +3478,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="50"/>
       <c r="B38" s="3" t="s">
         <v>44</v>
@@ -3416,7 +3490,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="50"/>
       <c r="B39" s="3" t="s">
         <v>44</v>
@@ -3428,7 +3502,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="50"/>
       <c r="B40" s="3" t="s">
         <v>44</v>
@@ -3440,7 +3514,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="50"/>
       <c r="B41" s="3" t="s">
         <v>140</v>
@@ -3452,7 +3526,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="50"/>
       <c r="B42" s="3" t="s">
         <v>108</v>
@@ -3464,7 +3538,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="50"/>
       <c r="B43" s="3" t="s">
         <v>112</v>
@@ -3476,7 +3550,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="50"/>
       <c r="B44" s="3" t="s">
         <v>114</v>
@@ -3488,7 +3562,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="50"/>
       <c r="B45" s="3" t="s">
         <v>122</v>
@@ -3500,7 +3574,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="50"/>
       <c r="B46" s="3" t="s">
         <v>123</v>
@@ -3512,7 +3586,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="50"/>
       <c r="B47" s="3" t="s">
         <v>138</v>
@@ -3524,7 +3598,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="50"/>
       <c r="B48" s="3" t="s">
         <v>138</v>
@@ -3536,7 +3610,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="50" t="s">
         <v>2</v>
       </c>
@@ -3550,7 +3624,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="50"/>
       <c r="B50" s="3" t="s">
         <v>8</v>
@@ -3562,7 +3636,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="50"/>
       <c r="B51" s="3" t="s">
         <v>18</v>
@@ -3574,7 +3648,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="50"/>
       <c r="B52" s="3" t="s">
         <v>72</v>
@@ -3586,7 +3660,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="50"/>
       <c r="B53" s="3" t="s">
         <v>74</v>
@@ -3598,7 +3672,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="50"/>
       <c r="B54" s="3" t="s">
         <v>78</v>
@@ -3610,7 +3684,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="50"/>
       <c r="B55" s="3" t="s">
         <v>82</v>
@@ -3622,7 +3696,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="50"/>
       <c r="B56" s="3" t="s">
         <v>86</v>
@@ -3634,7 +3708,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="50"/>
       <c r="B57" s="3" t="s">
         <v>111</v>
@@ -3646,7 +3720,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="50"/>
       <c r="B58" s="3" t="s">
         <v>55</v>
@@ -3658,7 +3732,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="50"/>
       <c r="B59" s="3" t="s">
         <v>129</v>
@@ -3670,7 +3744,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="50"/>
       <c r="B60" s="3" t="s">
         <v>122</v>
@@ -3682,7 +3756,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="50" t="s">
         <v>35</v>
       </c>
@@ -3696,7 +3770,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="50"/>
       <c r="B62" s="3" t="s">
         <v>107</v>
@@ -3708,7 +3782,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="50"/>
       <c r="B63" s="3" t="s">
         <v>122</v>
@@ -3720,7 +3794,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="50" t="s">
         <v>36</v>
       </c>
@@ -3734,7 +3808,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="50"/>
       <c r="B65" s="3" t="s">
         <v>26</v>
@@ -3746,7 +3820,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="50"/>
       <c r="B66" s="3" t="s">
         <v>122</v>
@@ -3758,7 +3832,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="50" t="s">
         <v>3</v>
       </c>
@@ -3772,27 +3846,27 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="50"/>
-      <c r="B68" s="53" t="s">
+      <c r="B68" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="53" t="s">
+      <c r="C68" s="51" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="50"/>
-      <c r="B69" s="53"/>
-      <c r="C69" s="53"/>
+      <c r="B69" s="51"/>
+      <c r="C69" s="51"/>
       <c r="D69" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="50"/>
       <c r="B70" s="3" t="s">
         <v>31</v>
@@ -3804,27 +3878,27 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="50"/>
-      <c r="B71" s="53" t="s">
+      <c r="B71" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C71" s="53" t="s">
+      <c r="C71" s="51" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="50"/>
-      <c r="B72" s="53"/>
-      <c r="C72" s="53"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="51"/>
       <c r="D72" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="50"/>
       <c r="B73" s="3" t="s">
         <v>26</v>
@@ -3836,7 +3910,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="50"/>
       <c r="B74" s="3" t="s">
         <v>122</v>
@@ -3848,7 +3922,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="50" t="s">
         <v>127</v>
       </c>
@@ -3862,47 +3936,47 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="50"/>
-      <c r="B76" s="53" t="s">
+      <c r="B76" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C76" s="53" t="s">
+      <c r="C76" s="51" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="50"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="53"/>
+      <c r="B77" s="51"/>
+      <c r="C77" s="51"/>
       <c r="D77" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="50"/>
-      <c r="B78" s="53" t="s">
+      <c r="B78" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="53" t="s">
+      <c r="C78" s="51" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="50"/>
-      <c r="B79" s="53"/>
-      <c r="C79" s="53"/>
+      <c r="B79" s="51"/>
+      <c r="C79" s="51"/>
       <c r="D79" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="50"/>
       <c r="B80" s="3" t="s">
         <v>26</v>
@@ -3914,7 +3988,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="50"/>
       <c r="B81" s="3" t="s">
         <v>122</v>
@@ -3926,7 +4000,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="50" t="s">
         <v>4</v>
       </c>
@@ -3940,27 +4014,27 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="50"/>
-      <c r="B83" s="51" t="s">
+      <c r="B83" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="51" t="s">
+      <c r="C83" s="52" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="50"/>
-      <c r="B84" s="52"/>
-      <c r="C84" s="52"/>
+      <c r="B84" s="53"/>
+      <c r="C84" s="53"/>
       <c r="D84" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="50"/>
       <c r="B85" s="3" t="s">
         <v>20</v>
@@ -3972,7 +4046,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="50"/>
       <c r="B86" s="3" t="s">
         <v>122</v>
@@ -3984,19 +4058,21 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C88" s="14" t="s">
         <v>162</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A13:A48"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="A75:A81"/>
+    <mergeCell ref="B76:B77"/>
     <mergeCell ref="C68:C69"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="C71:C72"/>
@@ -4005,14 +4081,12 @@
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="A67:A74"/>
     <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="A75:A81"/>
-    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A13:A48"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.27559055118110237"/>
@@ -4025,7 +4099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4039,7 +4113,7 @@
       <selection pane="bottomRight" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.25" bestFit="1" customWidth="1"/>
@@ -4048,7 +4122,7 @@
     <col min="5" max="5" width="27.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -4061,7 +4135,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="50" t="s">
         <v>165</v>
       </c>
@@ -4076,9 +4150,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="50"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="54" t="s">
         <v>171</v>
       </c>
       <c r="C3" s="50" t="s">
@@ -4089,18 +4163,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="50"/>
-      <c r="B4" s="57"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="50"/>
       <c r="D4" s="10"/>
       <c r="E4" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="50"/>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="54" t="s">
         <v>172</v>
       </c>
       <c r="C5" s="50" t="s">
@@ -4111,16 +4185,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="50"/>
-      <c r="B6" s="57"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="50"/>
       <c r="D6" s="10"/>
       <c r="E6" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="50"/>
       <c r="B7" s="1" t="s">
         <v>177</v>
@@ -4133,7 +4207,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="50"/>
       <c r="B8" s="3" t="s">
         <v>173</v>
@@ -4148,7 +4222,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="50"/>
       <c r="B9" s="3" t="s">
         <v>178</v>
@@ -4163,7 +4237,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="50"/>
       <c r="B10" s="3" t="s">
         <v>179</v>
@@ -4176,7 +4250,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="50"/>
       <c r="B11" s="3" t="s">
         <v>180</v>
@@ -4189,7 +4263,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="50"/>
       <c r="B12" s="1" t="s">
         <v>174</v>
@@ -4202,7 +4276,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="50" t="s">
         <v>166</v>
       </c>
@@ -4217,7 +4291,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="50"/>
       <c r="B14" s="1" t="s">
         <v>183</v>
@@ -4230,7 +4304,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="50"/>
       <c r="B15" s="1" t="s">
         <v>184</v>
@@ -4243,7 +4317,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="50"/>
       <c r="B16" s="1" t="s">
         <v>185</v>
@@ -4256,7 +4330,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="50"/>
       <c r="B17" s="1" t="s">
         <v>186</v>
@@ -4269,7 +4343,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="50"/>
       <c r="B18" s="1" t="s">
         <v>187</v>
@@ -4282,7 +4356,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="50"/>
       <c r="B19" s="1" t="s">
         <v>188</v>
@@ -4295,7 +4369,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="50"/>
       <c r="B20" s="1" t="s">
         <v>189</v>
@@ -4308,7 +4382,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="50"/>
       <c r="B21" s="3" t="s">
         <v>190</v>
@@ -4321,7 +4395,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="50"/>
       <c r="B22" s="1" t="s">
         <v>191</v>
@@ -4334,7 +4408,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="50"/>
       <c r="B23" s="1" t="s">
         <v>192</v>
@@ -4347,7 +4421,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="50"/>
       <c r="B24" s="1" t="s">
         <v>193</v>
@@ -4360,7 +4434,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="50"/>
       <c r="B25" s="1" t="s">
         <v>194</v>
@@ -4373,7 +4447,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="50"/>
       <c r="B26" s="1" t="s">
         <v>195</v>
@@ -4386,7 +4460,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="50"/>
       <c r="B27" s="1" t="s">
         <v>196</v>
@@ -4399,7 +4473,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="50"/>
       <c r="B28" s="1" t="s">
         <v>197</v>
@@ -4412,7 +4486,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="50"/>
       <c r="B29" s="1" t="s">
         <v>198</v>
@@ -4425,7 +4499,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="50"/>
       <c r="B30" s="1" t="s">
         <v>199</v>
@@ -4438,7 +4512,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="50"/>
       <c r="B31" s="1" t="s">
         <v>200</v>
@@ -4451,7 +4525,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="50"/>
       <c r="B32" s="1" t="s">
         <v>201</v>
@@ -4464,7 +4538,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="50"/>
       <c r="B33" s="1" t="s">
         <v>202</v>
@@ -4477,7 +4551,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="50"/>
       <c r="B34" s="1" t="s">
         <v>203</v>
@@ -4490,7 +4564,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="50"/>
       <c r="B35" s="3" t="s">
         <v>204</v>
@@ -4503,7 +4577,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="50"/>
       <c r="B36" s="3" t="s">
         <v>205</v>
@@ -4516,7 +4590,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="50"/>
       <c r="B37" s="3" t="s">
         <v>205</v>
@@ -4529,7 +4603,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="50"/>
       <c r="B38" s="3" t="s">
         <v>205</v>
@@ -4542,7 +4616,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="50"/>
       <c r="B39" s="3" t="s">
         <v>205</v>
@@ -4555,7 +4629,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="50"/>
       <c r="B40" s="3" t="s">
         <v>205</v>
@@ -4568,7 +4642,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="50"/>
       <c r="B41" s="3" t="s">
         <v>206</v>
@@ -4581,7 +4655,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="50"/>
       <c r="B42" s="3" t="s">
         <v>207</v>
@@ -4596,7 +4670,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="50"/>
       <c r="B43" s="3" t="s">
         <v>225</v>
@@ -4611,7 +4685,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="50"/>
       <c r="B44" s="3" t="s">
         <v>226</v>
@@ -4626,7 +4700,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="50"/>
       <c r="B45" s="3" t="s">
         <v>174</v>
@@ -4639,7 +4713,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="50"/>
       <c r="B46" s="3" t="s">
         <v>208</v>
@@ -4652,7 +4726,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="50"/>
       <c r="B47" s="3" t="s">
         <v>209</v>
@@ -4665,7 +4739,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="50"/>
       <c r="B48" s="3" t="s">
         <v>209</v>
@@ -4678,7 +4752,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="50" t="s">
         <v>175</v>
       </c>
@@ -4693,7 +4767,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="50"/>
       <c r="B50" s="3" t="s">
         <v>211</v>
@@ -4706,7 +4780,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="50"/>
       <c r="B51" s="3" t="s">
         <v>189</v>
@@ -4719,7 +4793,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="50"/>
       <c r="B52" s="3" t="s">
         <v>199</v>
@@ -4732,7 +4806,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="50"/>
       <c r="B53" s="3" t="s">
         <v>212</v>
@@ -4745,7 +4819,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="50"/>
       <c r="B54" s="3" t="s">
         <v>202</v>
@@ -4758,7 +4832,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="50"/>
       <c r="B55" s="3" t="s">
         <v>197</v>
@@ -4771,7 +4845,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="50"/>
       <c r="B56" s="3" t="s">
         <v>204</v>
@@ -4784,7 +4858,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="50"/>
       <c r="B57" s="3" t="s">
         <v>213</v>
@@ -4799,7 +4873,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="50"/>
       <c r="B58" s="3" t="s">
         <v>190</v>
@@ -4812,7 +4886,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="50"/>
       <c r="B59" s="3" t="s">
         <v>214</v>
@@ -4827,7 +4901,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="50"/>
       <c r="B60" s="3" t="s">
         <v>174</v>
@@ -4840,7 +4914,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="50" t="s">
         <v>176</v>
       </c>
@@ -4855,7 +4929,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="50"/>
       <c r="B62" s="3" t="s">
         <v>216</v>
@@ -4868,7 +4942,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="50"/>
       <c r="B63" s="3" t="s">
         <v>174</v>
@@ -4881,7 +4955,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="50" t="s">
         <v>168</v>
       </c>
@@ -4896,7 +4970,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="50"/>
       <c r="B65" s="3" t="s">
         <v>215</v>
@@ -4909,7 +4983,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="50"/>
       <c r="B66" s="3" t="s">
         <v>174</v>
@@ -4922,7 +4996,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="50" t="s">
         <v>169</v>
       </c>
@@ -4937,12 +5011,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="50"/>
-      <c r="B68" s="54" t="s">
+      <c r="B68" s="56" t="s">
         <v>217</v>
       </c>
-      <c r="C68" s="53" t="s">
+      <c r="C68" s="51" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="13"/>
@@ -4950,16 +5024,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="50"/>
-      <c r="B69" s="55"/>
-      <c r="C69" s="53"/>
+      <c r="B69" s="57"/>
+      <c r="C69" s="51"/>
       <c r="D69" s="13"/>
       <c r="E69" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="50"/>
       <c r="B70" s="3" t="s">
         <v>220</v>
@@ -4972,12 +5046,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="50"/>
-      <c r="B71" s="53" t="s">
+      <c r="B71" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="C71" s="53" t="s">
+      <c r="C71" s="51" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="13"/>
@@ -4985,16 +5059,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="50"/>
-      <c r="B72" s="53"/>
-      <c r="C72" s="53"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="51"/>
       <c r="D72" s="13"/>
       <c r="E72" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" s="50"/>
       <c r="B73" s="3" t="s">
         <v>215</v>
@@ -5007,7 +5081,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="50"/>
       <c r="B74" s="3" t="s">
         <v>174</v>
@@ -5020,7 +5094,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" s="50" t="s">
         <v>106</v>
       </c>
@@ -5035,12 +5109,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" s="50"/>
-      <c r="B76" s="54" t="s">
+      <c r="B76" s="56" t="s">
         <v>217</v>
       </c>
-      <c r="C76" s="53" t="s">
+      <c r="C76" s="51" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="13"/>
@@ -5048,21 +5122,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="50"/>
-      <c r="B77" s="55"/>
-      <c r="C77" s="53"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="51"/>
       <c r="D77" s="13"/>
       <c r="E77" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="50"/>
-      <c r="B78" s="53" t="s">
+      <c r="B78" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="C78" s="53" t="s">
+      <c r="C78" s="51" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="13"/>
@@ -5070,16 +5144,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" s="50"/>
-      <c r="B79" s="53"/>
-      <c r="C79" s="53"/>
+      <c r="B79" s="51"/>
+      <c r="C79" s="51"/>
       <c r="D79" s="13"/>
       <c r="E79" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" s="50"/>
       <c r="B80" s="3" t="s">
         <v>215</v>
@@ -5092,7 +5166,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="50"/>
       <c r="B81" s="3" t="s">
         <v>174</v>
@@ -5105,7 +5179,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="50" t="s">
         <v>104</v>
       </c>
@@ -5120,12 +5194,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="50"/>
-      <c r="B83" s="51" t="s">
+      <c r="B83" s="52" t="s">
         <v>189</v>
       </c>
-      <c r="C83" s="51" t="s">
+      <c r="C83" s="52" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="11"/>
@@ -5133,16 +5207,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="50"/>
-      <c r="B84" s="52"/>
-      <c r="C84" s="52"/>
+      <c r="B84" s="53"/>
+      <c r="C84" s="53"/>
       <c r="D84" s="12"/>
       <c r="E84" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" s="50"/>
       <c r="B85" s="3" t="s">
         <v>218</v>
@@ -5155,7 +5229,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="50"/>
       <c r="B86" s="3" t="s">
         <v>174</v>
@@ -5168,35 +5242,29 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C88" s="14" t="s">
         <v>170</v>
       </c>
       <c r="D88" s="14"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="20" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>278</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A13:A48"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
     <mergeCell ref="A82:A86"/>
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="C83:C84"/>
@@ -5213,6 +5281,12 @@
     <mergeCell ref="C76:C77"/>
     <mergeCell ref="B78:B79"/>
     <mergeCell ref="C78:C79"/>
+    <mergeCell ref="A13:A48"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
@@ -5224,14 +5298,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49" style="4" bestFit="1" customWidth="1"/>
@@ -5239,12 +5313,12 @@
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
         <v>145</v>
@@ -5253,7 +5327,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="58" t="s">
         <v>147</v>
       </c>
@@ -5264,7 +5338,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="58"/>
       <c r="B5" s="7" t="s">
         <v>149</v>
@@ -5273,7 +5347,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="58"/>
       <c r="B6" s="7" t="s">
         <v>150</v>
@@ -5282,7 +5356,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="78.75">
+    <row r="7" spans="1:3" ht="78.75" x14ac:dyDescent="0.15">
       <c r="A7" s="58"/>
       <c r="B7" s="7" t="s">
         <v>151</v>
@@ -5291,7 +5365,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>153</v>
       </c>
@@ -5300,7 +5374,7 @@
       </c>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>155</v>
       </c>
@@ -5311,7 +5385,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>157</v>
       </c>
@@ -5322,7 +5396,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>159</v>
       </c>
@@ -5344,14 +5418,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:VMV142"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.25" bestFit="1" customWidth="1"/>
@@ -5364,7 +5438,7 @@
     <col min="9" max="9" width="50.625" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15232">
+    <row r="1" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -5389,7 +5463,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:15232" ht="27">
+    <row r="2" spans="1:15232" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="50" t="s">
         <v>165</v>
       </c>
@@ -5412,7 +5486,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="1:15232" ht="54">
+    <row r="3" spans="1:15232" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" s="50"/>
       <c r="B3" s="21" t="s">
         <v>171</v>
@@ -5433,7 +5507,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:15232">
+    <row r="4" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A4" s="50"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -5446,7 +5520,7 @@
       <c r="H4" s="21"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:15232">
+    <row r="5" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A5" s="50"/>
       <c r="B5" s="21" t="s">
         <v>172</v>
@@ -5467,7 +5541,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="1:15232">
+    <row r="6" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A6" s="50"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -5480,7 +5554,7 @@
       <c r="H6" s="21"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:15232">
+    <row r="7" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A7" s="50"/>
       <c r="B7" s="21" t="s">
         <v>177</v>
@@ -5499,7 +5573,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="1:15232" ht="27">
+    <row r="8" spans="1:15232" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="50"/>
       <c r="B8" s="21" t="s">
         <v>173</v>
@@ -5518,7 +5592,7 @@
       <c r="H8" s="21"/>
       <c r="I8" s="27"/>
     </row>
-    <row r="9" spans="1:15232">
+    <row r="9" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A9" s="50"/>
       <c r="B9" s="21" t="s">
         <v>178</v>
@@ -5537,7 +5611,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="27"/>
     </row>
-    <row r="10" spans="1:15232">
+    <row r="10" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A10" s="50"/>
       <c r="B10" s="21" t="s">
         <v>179</v>
@@ -5554,7 +5628,7 @@
       <c r="H10" s="21"/>
       <c r="I10" s="27"/>
     </row>
-    <row r="11" spans="1:15232">
+    <row r="11" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A11" s="50"/>
       <c r="B11" s="21" t="s">
         <v>180</v>
@@ -5571,7 +5645,7 @@
       <c r="H11" s="21"/>
       <c r="I11" s="27"/>
     </row>
-    <row r="12" spans="1:15232">
+    <row r="12" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A12" s="50"/>
       <c r="B12" s="21" t="s">
         <v>174</v>
@@ -5588,7 +5662,7 @@
       <c r="H12" s="21"/>
       <c r="I12" s="27"/>
     </row>
-    <row r="13" spans="1:15232">
+    <row r="13" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -5598,7 +5672,7 @@
       <c r="H13" s="21"/>
       <c r="I13" s="27"/>
     </row>
-    <row r="14" spans="1:15232">
+    <row r="14" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -5608,7 +5682,7 @@
       <c r="H14" s="21"/>
       <c r="I14" s="27"/>
     </row>
-    <row r="15" spans="1:15232" s="15" customFormat="1">
+    <row r="15" spans="1:15232" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="50" t="s">
         <v>166</v>
       </c>
@@ -20852,7 +20926,7 @@
       <c r="VMU15" s="18"/>
       <c r="VMV15" s="18"/>
     </row>
-    <row r="16" spans="1:15232">
+    <row r="16" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A16" s="50"/>
       <c r="B16" s="21" t="s">
         <v>183</v>
@@ -20873,7 +20947,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="27">
+    <row r="17" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="50"/>
       <c r="B17" s="21" t="s">
         <v>184</v>
@@ -20894,7 +20968,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="50"/>
       <c r="B18" s="21" t="s">
         <v>185</v>
@@ -20915,7 +20989,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="18" customFormat="1">
+    <row r="19" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="50"/>
       <c r="B19" s="21" t="s">
         <v>186</v>
@@ -20934,7 +21008,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="28"/>
     </row>
-    <row r="20" spans="1:9" s="18" customFormat="1">
+    <row r="20" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="50"/>
       <c r="B20" s="21" t="s">
         <v>187</v>
@@ -20955,7 +21029,7 @@
       </c>
       <c r="I20" s="28"/>
     </row>
-    <row r="21" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="21" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="50"/>
       <c r="B21" s="21" t="s">
         <v>188</v>
@@ -20976,7 +21050,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="22" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="50"/>
       <c r="B22" s="21" t="s">
         <v>189</v>
@@ -20997,7 +21071,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="18" customFormat="1">
+    <row r="23" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="50"/>
       <c r="B23" s="21" t="s">
         <v>190</v>
@@ -21018,7 +21092,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="24" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="50"/>
       <c r="B24" s="21" t="s">
         <v>191</v>
@@ -21039,7 +21113,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="25" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="50"/>
       <c r="B25" s="21" t="s">
         <v>192</v>
@@ -21060,7 +21134,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="26" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="50"/>
       <c r="B26" s="21" t="s">
         <v>193</v>
@@ -21081,7 +21155,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="27" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A27" s="50"/>
       <c r="B27" s="21" t="s">
         <v>194</v>
@@ -21102,7 +21176,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="18" customFormat="1">
+    <row r="28" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="50"/>
       <c r="B28" s="21" t="s">
         <v>195</v>
@@ -21121,7 +21195,7 @@
       <c r="H28" s="21"/>
       <c r="I28" s="28"/>
     </row>
-    <row r="29" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="29" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="50"/>
       <c r="B29" s="21" t="s">
         <v>196</v>
@@ -21142,7 +21216,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="18" customFormat="1" ht="12.75" customHeight="1">
+    <row r="30" spans="1:9" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="50"/>
       <c r="B30" s="21" t="s">
         <v>197</v>
@@ -21163,7 +21237,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="31" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="50"/>
       <c r="B31" s="21" t="s">
         <v>198</v>
@@ -21184,7 +21258,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="32" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A32" s="50"/>
       <c r="B32" s="21" t="s">
         <v>199</v>
@@ -21205,7 +21279,7 @@
       </c>
       <c r="I32" s="28"/>
     </row>
-    <row r="33" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="33" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A33" s="50"/>
       <c r="B33" s="21" t="s">
         <v>200</v>
@@ -21226,7 +21300,7 @@
       </c>
       <c r="I33" s="28"/>
     </row>
-    <row r="34" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="34" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A34" s="50"/>
       <c r="B34" s="21" t="s">
         <v>201</v>
@@ -21247,7 +21321,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="35" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A35" s="50"/>
       <c r="B35" s="21" t="s">
         <v>202</v>
@@ -21268,7 +21342,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="36" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="50"/>
       <c r="B36" s="21" t="s">
         <v>203</v>
@@ -21289,7 +21363,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="37" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A37" s="50"/>
       <c r="B37" s="21" t="s">
         <v>204</v>
@@ -21310,7 +21384,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="38" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="50"/>
       <c r="B38" s="21" t="s">
         <v>205</v>
@@ -21333,7 +21407,7 @@
       </c>
       <c r="I38" s="28"/>
     </row>
-    <row r="39" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="39" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="50"/>
       <c r="B39" s="21" t="s">
         <v>205</v>
@@ -21356,7 +21430,7 @@
       </c>
       <c r="I39" s="28"/>
     </row>
-    <row r="40" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="40" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="50"/>
       <c r="B40" s="21" t="s">
         <v>205</v>
@@ -21379,7 +21453,7 @@
       </c>
       <c r="I40" s="28"/>
     </row>
-    <row r="41" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="41" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="50"/>
       <c r="B41" s="21" t="s">
         <v>205</v>
@@ -21402,7 +21476,7 @@
       </c>
       <c r="I41" s="28"/>
     </row>
-    <row r="42" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="42" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="50"/>
       <c r="B42" s="21" t="s">
         <v>205</v>
@@ -21425,7 +21499,7 @@
       </c>
       <c r="I42" s="28"/>
     </row>
-    <row r="43" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="43" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="50"/>
       <c r="B43" s="21" t="s">
         <v>206</v>
@@ -21446,7 +21520,7 @@
       </c>
       <c r="I43" s="28"/>
     </row>
-    <row r="44" spans="1:9" s="18" customFormat="1">
+    <row r="44" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="50"/>
       <c r="B44" s="21" t="s">
         <v>207</v>
@@ -21465,7 +21539,7 @@
       <c r="H44" s="21"/>
       <c r="I44" s="28"/>
     </row>
-    <row r="45" spans="1:9" s="18" customFormat="1">
+    <row r="45" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="50"/>
       <c r="B45" s="21" t="s">
         <v>225</v>
@@ -21484,7 +21558,7 @@
       <c r="H45" s="21"/>
       <c r="I45" s="28"/>
     </row>
-    <row r="46" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="46" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="50"/>
       <c r="B46" s="21" t="s">
         <v>226</v>
@@ -21503,7 +21577,7 @@
       <c r="H46" s="21"/>
       <c r="I46" s="28"/>
     </row>
-    <row r="47" spans="1:9" s="18" customFormat="1">
+    <row r="47" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="50"/>
       <c r="B47" s="21" t="s">
         <v>174</v>
@@ -21520,7 +21594,7 @@
       <c r="H47" s="21"/>
       <c r="I47" s="28"/>
     </row>
-    <row r="48" spans="1:9" s="18" customFormat="1">
+    <row r="48" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="50"/>
       <c r="B48" s="21" t="s">
         <v>208</v>
@@ -21537,7 +21611,7 @@
       <c r="H48" s="21"/>
       <c r="I48" s="28"/>
     </row>
-    <row r="49" spans="1:9" s="18" customFormat="1">
+    <row r="49" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="50"/>
       <c r="B49" s="21" t="s">
         <v>209</v>
@@ -21554,7 +21628,7 @@
       <c r="H49" s="21"/>
       <c r="I49" s="28"/>
     </row>
-    <row r="50" spans="1:9" s="18" customFormat="1">
+    <row r="50" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="50"/>
       <c r="B50" s="21" t="s">
         <v>209</v>
@@ -21571,7 +21645,7 @@
       <c r="H50" s="21"/>
       <c r="I50" s="28"/>
     </row>
-    <row r="51" spans="1:9" s="18" customFormat="1">
+    <row r="51" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -21582,7 +21656,7 @@
       <c r="H51" s="21"/>
       <c r="I51" s="28"/>
     </row>
-    <row r="52" spans="1:9" s="18" customFormat="1">
+    <row r="52" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -21593,7 +21667,7 @@
       <c r="H52" s="21"/>
       <c r="I52" s="28"/>
     </row>
-    <row r="53" spans="1:9" s="18" customFormat="1">
+    <row r="53" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="50" t="s">
         <v>175</v>
       </c>
@@ -21612,7 +21686,7 @@
       <c r="H53" s="21"/>
       <c r="I53" s="28"/>
     </row>
-    <row r="54" spans="1:9" s="18" customFormat="1">
+    <row r="54" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="50"/>
       <c r="B54" s="21" t="s">
         <v>211</v>
@@ -21629,7 +21703,7 @@
       <c r="H54" s="21"/>
       <c r="I54" s="28"/>
     </row>
-    <row r="55" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="55" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="50"/>
       <c r="B55" s="21" t="s">
         <v>189</v>
@@ -21650,7 +21724,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="18" customFormat="1">
+    <row r="56" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="50"/>
       <c r="B56" s="21" t="s">
         <v>199</v>
@@ -21667,7 +21741,7 @@
       <c r="H56" s="21"/>
       <c r="I56" s="28"/>
     </row>
-    <row r="57" spans="1:9" s="18" customFormat="1">
+    <row r="57" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="50"/>
       <c r="B57" s="21" t="s">
         <v>212</v>
@@ -21684,7 +21758,7 @@
       <c r="H57" s="21"/>
       <c r="I57" s="28"/>
     </row>
-    <row r="58" spans="1:9" s="18" customFormat="1">
+    <row r="58" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="50"/>
       <c r="B58" s="21" t="s">
         <v>202</v>
@@ -21701,7 +21775,7 @@
       <c r="H58" s="21"/>
       <c r="I58" s="28"/>
     </row>
-    <row r="59" spans="1:9" s="18" customFormat="1">
+    <row r="59" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="50"/>
       <c r="B59" s="21" t="s">
         <v>197</v>
@@ -21718,7 +21792,7 @@
       <c r="H59" s="21"/>
       <c r="I59" s="28"/>
     </row>
-    <row r="60" spans="1:9" s="18" customFormat="1">
+    <row r="60" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="50"/>
       <c r="B60" s="21" t="s">
         <v>204</v>
@@ -21735,7 +21809,7 @@
       <c r="H60" s="21"/>
       <c r="I60" s="28"/>
     </row>
-    <row r="61" spans="1:9" s="18" customFormat="1">
+    <row r="61" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="50"/>
       <c r="B61" s="21" t="s">
         <v>213</v>
@@ -21754,7 +21828,7 @@
       <c r="H61" s="21"/>
       <c r="I61" s="28"/>
     </row>
-    <row r="62" spans="1:9" s="18" customFormat="1">
+    <row r="62" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="50"/>
       <c r="B62" s="21" t="s">
         <v>190</v>
@@ -21771,7 +21845,7 @@
       <c r="H62" s="21"/>
       <c r="I62" s="28"/>
     </row>
-    <row r="63" spans="1:9" s="18" customFormat="1">
+    <row r="63" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="50"/>
       <c r="B63" s="21" t="s">
         <v>214</v>
@@ -21790,7 +21864,7 @@
       <c r="H63" s="21"/>
       <c r="I63" s="28"/>
     </row>
-    <row r="64" spans="1:9" s="18" customFormat="1">
+    <row r="64" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="50"/>
       <c r="B64" s="21" t="s">
         <v>174</v>
@@ -21807,7 +21881,7 @@
       <c r="H64" s="21"/>
       <c r="I64" s="28"/>
     </row>
-    <row r="65" spans="1:9" s="18" customFormat="1">
+    <row r="65" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -21818,7 +21892,7 @@
       <c r="H65" s="21"/>
       <c r="I65" s="28"/>
     </row>
-    <row r="66" spans="1:9" s="18" customFormat="1">
+    <row r="66" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -21829,7 +21903,7 @@
       <c r="H66" s="21"/>
       <c r="I66" s="28"/>
     </row>
-    <row r="67" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="67" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="59" t="s">
         <v>176</v>
       </c>
@@ -21852,7 +21926,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="68" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="59"/>
       <c r="B68" s="21" t="s">
         <v>216</v>
@@ -21873,7 +21947,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="18" customFormat="1">
+    <row r="69" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69" s="59"/>
       <c r="B69" s="21" t="s">
         <v>174</v>
@@ -21890,7 +21964,7 @@
       <c r="H69" s="21"/>
       <c r="I69" s="28"/>
     </row>
-    <row r="70" spans="1:9" s="18" customFormat="1">
+    <row r="70" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70"/>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
@@ -21901,7 +21975,7 @@
       <c r="H70" s="21"/>
       <c r="I70" s="28"/>
     </row>
-    <row r="71" spans="1:9" s="18" customFormat="1">
+    <row r="71" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71"/>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
@@ -21912,7 +21986,7 @@
       <c r="H71" s="21"/>
       <c r="I71" s="28"/>
     </row>
-    <row r="72" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="72" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A72" s="59" t="s">
         <v>168</v>
       </c>
@@ -21935,7 +22009,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="73" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A73" s="59"/>
       <c r="B73" s="21" t="s">
         <v>215</v>
@@ -21956,7 +22030,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="18" customFormat="1">
+    <row r="74" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74" s="59"/>
       <c r="B74" s="21" t="s">
         <v>174</v>
@@ -21973,7 +22047,7 @@
       <c r="H74" s="21"/>
       <c r="I74" s="28"/>
     </row>
-    <row r="75" spans="1:9" s="18" customFormat="1">
+    <row r="75" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -21984,7 +22058,7 @@
       <c r="H75" s="21"/>
       <c r="I75" s="28"/>
     </row>
-    <row r="76" spans="1:9" s="18" customFormat="1">
+    <row r="76" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
@@ -21995,7 +22069,7 @@
       <c r="H76" s="21"/>
       <c r="I76" s="28"/>
     </row>
-    <row r="77" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="77" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A77" s="50" t="s">
         <v>169</v>
       </c>
@@ -22018,7 +22092,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="78" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A78" s="50"/>
       <c r="B78" s="21" t="s">
         <v>217</v>
@@ -22039,7 +22113,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="18" customFormat="1">
+    <row r="79" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A79" s="50"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
@@ -22052,7 +22126,7 @@
       <c r="H79" s="21"/>
       <c r="I79" s="28"/>
     </row>
-    <row r="80" spans="1:9" s="18" customFormat="1">
+    <row r="80" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80" s="50"/>
       <c r="B80" s="21" t="s">
         <v>220</v>
@@ -22073,7 +22147,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="18" customFormat="1">
+    <row r="81" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="50"/>
       <c r="B81" s="21" t="s">
         <v>219</v>
@@ -22094,7 +22168,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="18" customFormat="1">
+    <row r="82" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="50"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
@@ -22107,7 +22181,7 @@
       <c r="H82" s="21"/>
       <c r="I82" s="28"/>
     </row>
-    <row r="83" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="83" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="50"/>
       <c r="B83" s="21" t="s">
         <v>215</v>
@@ -22128,7 +22202,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="18" customFormat="1">
+    <row r="84" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="50"/>
       <c r="B84" s="21" t="s">
         <v>174</v>
@@ -22145,7 +22219,7 @@
       <c r="H84" s="21"/>
       <c r="I84" s="28"/>
     </row>
-    <row r="85" spans="1:9" s="18" customFormat="1">
+    <row r="85" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -22156,7 +22230,7 @@
       <c r="H85" s="21"/>
       <c r="I85" s="28"/>
     </row>
-    <row r="86" spans="1:9" s="18" customFormat="1">
+    <row r="86" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -22167,7 +22241,7 @@
       <c r="H86" s="21"/>
       <c r="I86" s="28"/>
     </row>
-    <row r="87" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="87" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A87" s="50" t="s">
         <v>106</v>
       </c>
@@ -22190,7 +22264,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="88" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A88" s="50"/>
       <c r="B88" s="21" t="s">
         <v>217</v>
@@ -22211,7 +22285,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="18" customFormat="1">
+    <row r="89" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="50"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
@@ -22224,7 +22298,7 @@
       <c r="H89" s="21"/>
       <c r="I89" s="28"/>
     </row>
-    <row r="90" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="90" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A90" s="50"/>
       <c r="B90" s="21" t="s">
         <v>219</v>
@@ -22245,7 +22319,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="18" customFormat="1">
+    <row r="91" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="50"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
@@ -22258,7 +22332,7 @@
       <c r="H91" s="21"/>
       <c r="I91" s="28"/>
     </row>
-    <row r="92" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="92" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A92" s="50"/>
       <c r="B92" s="21" t="s">
         <v>215</v>
@@ -22279,7 +22353,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="18" customFormat="1">
+    <row r="93" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="50"/>
       <c r="B93" s="21" t="s">
         <v>174</v>
@@ -22296,7 +22370,7 @@
       <c r="H93" s="21"/>
       <c r="I93" s="28"/>
     </row>
-    <row r="94" spans="1:9" s="18" customFormat="1">
+    <row r="94" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
@@ -22307,7 +22381,7 @@
       <c r="H94" s="21"/>
       <c r="I94" s="28"/>
     </row>
-    <row r="95" spans="1:9" s="18" customFormat="1">
+    <row r="95" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
@@ -22318,7 +22392,7 @@
       <c r="H95" s="21"/>
       <c r="I95" s="28"/>
     </row>
-    <row r="96" spans="1:9" s="18" customFormat="1">
+    <row r="96" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="50" t="s">
         <v>104</v>
       </c>
@@ -22341,7 +22415,7 @@
       </c>
       <c r="I96" s="28"/>
     </row>
-    <row r="97" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="97" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A97" s="50"/>
       <c r="B97" s="21" t="s">
         <v>189</v>
@@ -22362,7 +22436,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="18" customFormat="1">
+    <row r="98" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A98" s="50"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
@@ -22375,7 +22449,7 @@
       <c r="H98" s="21"/>
       <c r="I98" s="28"/>
     </row>
-    <row r="99" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="99" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A99" s="50"/>
       <c r="B99" s="21" t="s">
         <v>218</v>
@@ -22396,7 +22470,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="18" customFormat="1">
+    <row r="100" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A100" s="50"/>
       <c r="B100" s="21" t="s">
         <v>174</v>
@@ -22413,7 +22487,7 @@
       <c r="H100" s="21"/>
       <c r="I100" s="28"/>
     </row>
-    <row r="101" spans="1:9" s="18" customFormat="1">
+    <row r="101" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101"/>
       <c r="B101" s="21"/>
       <c r="C101" s="21"/>
@@ -22424,7 +22498,7 @@
       <c r="H101" s="21"/>
       <c r="I101" s="28"/>
     </row>
-    <row r="102" spans="1:9" s="18" customFormat="1">
+    <row r="102" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A102"/>
       <c r="B102" s="21"/>
       <c r="C102" s="21"/>
@@ -22435,7 +22509,7 @@
       <c r="H102" s="21"/>
       <c r="I102" s="28"/>
     </row>
-    <row r="103" spans="1:9" s="18" customFormat="1">
+    <row r="103" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A103"/>
       <c r="B103" s="21"/>
       <c r="C103" s="21"/>
@@ -22446,7 +22520,7 @@
       <c r="H103" s="21"/>
       <c r="I103" s="28"/>
     </row>
-    <row r="104" spans="1:9" s="18" customFormat="1">
+    <row r="104" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104"/>
       <c r="B104" s="21"/>
       <c r="C104" s="21"/>
@@ -22457,7 +22531,7 @@
       <c r="H104" s="21"/>
       <c r="I104" s="28"/>
     </row>
-    <row r="105" spans="1:9" s="18" customFormat="1">
+    <row r="105" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A105"/>
       <c r="B105" s="21"/>
       <c r="C105" s="21"/>
@@ -22468,7 +22542,7 @@
       <c r="H105" s="21"/>
       <c r="I105" s="28"/>
     </row>
-    <row r="106" spans="1:9" s="18" customFormat="1">
+    <row r="106" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B106" s="19"/>
       <c r="C106" s="19"/>
       <c r="D106"/>
@@ -22477,7 +22551,7 @@
       <c r="G106"/>
       <c r="I106" s="24"/>
     </row>
-    <row r="107" spans="1:9" s="18" customFormat="1">
+    <row r="107" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
@@ -22486,7 +22560,7 @@
       <c r="G107"/>
       <c r="I107" s="24"/>
     </row>
-    <row r="108" spans="1:9" s="18" customFormat="1">
+    <row r="108" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B108"/>
       <c r="C108"/>
       <c r="D108"/>
@@ -22495,7 +22569,7 @@
       <c r="G108"/>
       <c r="I108" s="24"/>
     </row>
-    <row r="109" spans="1:9" s="18" customFormat="1">
+    <row r="109" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -22505,7 +22579,7 @@
       <c r="G109"/>
       <c r="I109" s="24"/>
     </row>
-    <row r="110" spans="1:9" s="18" customFormat="1">
+    <row r="110" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -22515,7 +22589,7 @@
       <c r="G110"/>
       <c r="I110" s="24"/>
     </row>
-    <row r="111" spans="1:9" s="18" customFormat="1">
+    <row r="111" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -22525,7 +22599,7 @@
       <c r="G111"/>
       <c r="I111" s="24"/>
     </row>
-    <row r="112" spans="1:9" s="18" customFormat="1">
+    <row r="112" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -22535,7 +22609,7 @@
       <c r="G112"/>
       <c r="I112" s="24"/>
     </row>
-    <row r="113" spans="1:9" s="18" customFormat="1">
+    <row r="113" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -22545,7 +22619,7 @@
       <c r="G113"/>
       <c r="I113" s="24"/>
     </row>
-    <row r="114" spans="1:9" s="18" customFormat="1">
+    <row r="114" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -22555,7 +22629,7 @@
       <c r="G114"/>
       <c r="I114" s="24"/>
     </row>
-    <row r="115" spans="1:9" s="18" customFormat="1">
+    <row r="115" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -22565,7 +22639,7 @@
       <c r="G115"/>
       <c r="I115" s="24"/>
     </row>
-    <row r="116" spans="1:9" s="18" customFormat="1">
+    <row r="116" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -22575,7 +22649,7 @@
       <c r="G116"/>
       <c r="I116" s="24"/>
     </row>
-    <row r="117" spans="1:9" s="18" customFormat="1">
+    <row r="117" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -22585,7 +22659,7 @@
       <c r="G117"/>
       <c r="I117" s="24"/>
     </row>
-    <row r="118" spans="1:9" s="18" customFormat="1">
+    <row r="118" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -22595,7 +22669,7 @@
       <c r="G118"/>
       <c r="I118" s="24"/>
     </row>
-    <row r="119" spans="1:9" s="18" customFormat="1">
+    <row r="119" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -22605,7 +22679,7 @@
       <c r="G119"/>
       <c r="I119" s="24"/>
     </row>
-    <row r="120" spans="1:9" s="18" customFormat="1">
+    <row r="120" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -22615,7 +22689,7 @@
       <c r="G120"/>
       <c r="I120" s="24"/>
     </row>
-    <row r="121" spans="1:9" s="18" customFormat="1">
+    <row r="121" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -22625,7 +22699,7 @@
       <c r="G121"/>
       <c r="I121" s="24"/>
     </row>
-    <row r="122" spans="1:9" s="18" customFormat="1">
+    <row r="122" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -22635,7 +22709,7 @@
       <c r="G122"/>
       <c r="I122" s="24"/>
     </row>
-    <row r="123" spans="1:9" s="18" customFormat="1">
+    <row r="123" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
@@ -22645,7 +22719,7 @@
       <c r="G123"/>
       <c r="I123" s="24"/>
     </row>
-    <row r="124" spans="1:9" s="18" customFormat="1">
+    <row r="124" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
@@ -22655,7 +22729,7 @@
       <c r="G124"/>
       <c r="I124" s="24"/>
     </row>
-    <row r="125" spans="1:9" s="18" customFormat="1">
+    <row r="125" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -22665,7 +22739,7 @@
       <c r="G125"/>
       <c r="I125" s="24"/>
     </row>
-    <row r="126" spans="1:9" s="18" customFormat="1">
+    <row r="126" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
@@ -22675,7 +22749,7 @@
       <c r="G126"/>
       <c r="I126" s="24"/>
     </row>
-    <row r="127" spans="1:9" s="18" customFormat="1">
+    <row r="127" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
@@ -22685,7 +22759,7 @@
       <c r="G127"/>
       <c r="I127" s="24"/>
     </row>
-    <row r="128" spans="1:9" s="18" customFormat="1">
+    <row r="128" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
@@ -22695,7 +22769,7 @@
       <c r="G128"/>
       <c r="I128" s="24"/>
     </row>
-    <row r="129" spans="1:9" s="18" customFormat="1">
+    <row r="129" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -22705,7 +22779,7 @@
       <c r="G129"/>
       <c r="I129" s="24"/>
     </row>
-    <row r="130" spans="1:9" s="18" customFormat="1">
+    <row r="130" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
@@ -22715,7 +22789,7 @@
       <c r="G130"/>
       <c r="I130" s="24"/>
     </row>
-    <row r="131" spans="1:9" s="18" customFormat="1">
+    <row r="131" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
@@ -22725,7 +22799,7 @@
       <c r="G131"/>
       <c r="I131" s="24"/>
     </row>
-    <row r="132" spans="1:9" s="18" customFormat="1">
+    <row r="132" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
@@ -22735,7 +22809,7 @@
       <c r="G132"/>
       <c r="I132" s="24"/>
     </row>
-    <row r="133" spans="1:9" s="18" customFormat="1">
+    <row r="133" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
@@ -22745,7 +22819,7 @@
       <c r="G133"/>
       <c r="I133" s="24"/>
     </row>
-    <row r="134" spans="1:9" s="18" customFormat="1">
+    <row r="134" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
@@ -22755,7 +22829,7 @@
       <c r="G134"/>
       <c r="I134" s="24"/>
     </row>
-    <row r="135" spans="1:9" s="18" customFormat="1">
+    <row r="135" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
@@ -22765,7 +22839,7 @@
       <c r="G135"/>
       <c r="I135" s="24"/>
     </row>
-    <row r="136" spans="1:9" s="18" customFormat="1">
+    <row r="136" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
@@ -22775,7 +22849,7 @@
       <c r="G136"/>
       <c r="I136" s="24"/>
     </row>
-    <row r="137" spans="1:9" s="18" customFormat="1">
+    <row r="137" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
@@ -22785,7 +22859,7 @@
       <c r="G137"/>
       <c r="I137" s="24"/>
     </row>
-    <row r="138" spans="1:9" s="18" customFormat="1">
+    <row r="138" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
@@ -22795,7 +22869,7 @@
       <c r="G138"/>
       <c r="I138" s="24"/>
     </row>
-    <row r="139" spans="1:9" s="18" customFormat="1">
+    <row r="139" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
@@ -22805,7 +22879,7 @@
       <c r="G139"/>
       <c r="I139" s="24"/>
     </row>
-    <row r="140" spans="1:9" s="18" customFormat="1">
+    <row r="140" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
@@ -22815,7 +22889,7 @@
       <c r="G140"/>
       <c r="I140" s="24"/>
     </row>
-    <row r="141" spans="1:9" s="18" customFormat="1">
+    <row r="141" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -22825,7 +22899,7 @@
       <c r="G141"/>
       <c r="I141" s="24"/>
     </row>
-    <row r="142" spans="1:9" s="18" customFormat="1">
+    <row r="142" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
@@ -22852,14 +22926,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J68" sqref="J68"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63.875" customWidth="1"/>
@@ -22873,7 +22947,7 @@
     <col min="10" max="10" width="89.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -22903,7 +22977,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="50" t="s">
         <v>165</v>
       </c>
@@ -22935,7 +23009,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="50"/>
       <c r="B3" s="21" t="s">
         <v>171</v>
@@ -22965,7 +23039,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="50"/>
       <c r="B4" s="21" t="s">
         <v>172</v>
@@ -22995,7 +23069,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="50" t="s">
         <v>166</v>
       </c>
@@ -23019,7 +23093,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="50"/>
       <c r="B6" s="21" t="s">
         <v>183</v>
@@ -23047,7 +23121,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="50"/>
       <c r="B7" s="21" t="s">
         <v>184</v>
@@ -23075,7 +23149,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="50"/>
       <c r="B8" s="21" t="s">
         <v>185</v>
@@ -23103,7 +23177,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="50"/>
       <c r="B9" s="21" t="s">
         <v>186</v>
@@ -23125,7 +23199,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="50"/>
       <c r="B10" s="21" t="s">
         <v>187</v>
@@ -23153,7 +23227,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="50"/>
       <c r="B11" s="21" t="s">
         <v>188</v>
@@ -23181,7 +23255,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="50"/>
       <c r="B12" s="21" t="s">
         <v>189</v>
@@ -23209,7 +23283,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="50"/>
       <c r="B13" s="21" t="s">
         <v>190</v>
@@ -23237,7 +23311,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="50"/>
       <c r="B14" s="21" t="s">
         <v>191</v>
@@ -23265,7 +23339,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="50"/>
       <c r="B15" s="21" t="s">
         <v>192</v>
@@ -23293,7 +23367,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="50"/>
       <c r="B16" s="21" t="s">
         <v>193</v>
@@ -23321,7 +23395,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="50"/>
       <c r="B17" s="21" t="s">
         <v>194</v>
@@ -23349,7 +23423,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="50"/>
       <c r="B18" s="21" t="s">
         <v>195</v>
@@ -23369,7 +23443,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="50"/>
       <c r="B19" s="21" t="s">
         <v>196</v>
@@ -23397,7 +23471,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="50"/>
       <c r="B20" s="21" t="s">
         <v>197</v>
@@ -23425,7 +23499,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="50"/>
       <c r="B21" s="21" t="s">
         <v>198</v>
@@ -23453,7 +23527,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="50"/>
       <c r="B22" s="21" t="s">
         <v>199</v>
@@ -23481,7 +23555,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="50"/>
       <c r="B23" s="21" t="s">
         <v>200</v>
@@ -23511,7 +23585,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="50"/>
       <c r="B24" s="21" t="s">
         <v>201</v>
@@ -23539,7 +23613,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="50"/>
       <c r="B25" s="21" t="s">
         <v>202</v>
@@ -23567,7 +23641,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="50"/>
       <c r="B26" s="21" t="s">
         <v>203</v>
@@ -23595,7 +23669,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="14.25" customHeight="1">
+    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="50"/>
       <c r="B27" s="21" t="s">
         <v>204</v>
@@ -23623,7 +23697,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="50"/>
       <c r="B28" s="21" t="s">
         <v>205</v>
@@ -23653,7 +23727,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="50"/>
       <c r="B29" s="21" t="s">
         <v>205</v>
@@ -23683,7 +23757,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="50"/>
       <c r="B30" s="21" t="s">
         <v>205</v>
@@ -23713,7 +23787,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="50"/>
       <c r="B31" s="21" t="s">
         <v>205</v>
@@ -23743,7 +23817,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="50"/>
       <c r="B32" s="21" t="s">
         <v>205</v>
@@ -23773,7 +23847,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="50"/>
       <c r="B33" s="21" t="s">
         <v>205</v>
@@ -23803,7 +23877,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="50"/>
       <c r="B34" s="21" t="s">
         <v>205</v>
@@ -23833,7 +23907,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="50"/>
       <c r="B35" s="21" t="s">
         <v>205</v>
@@ -23863,7 +23937,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="50"/>
       <c r="B36" s="21" t="s">
         <v>205</v>
@@ -23893,7 +23967,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="50"/>
       <c r="B37" s="21" t="s">
         <v>205</v>
@@ -23923,7 +23997,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="50"/>
       <c r="B38" s="21" t="s">
         <v>205</v>
@@ -23953,7 +24027,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="50"/>
       <c r="B39" s="21" t="s">
         <v>205</v>
@@ -23983,7 +24057,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="50"/>
       <c r="B40" s="21" t="s">
         <v>206</v>
@@ -24013,7 +24087,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="50" t="s">
         <v>175</v>
       </c>
@@ -24035,7 +24109,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="50"/>
       <c r="B42" s="21" t="s">
         <v>211</v>
@@ -24051,7 +24125,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="50"/>
       <c r="B43" s="21" t="s">
         <v>189</v>
@@ -24067,7 +24141,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="50"/>
       <c r="B44" s="21" t="s">
         <v>199</v>
@@ -24083,7 +24157,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="50"/>
       <c r="B45" s="21" t="s">
         <v>212</v>
@@ -24099,7 +24173,7 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="50"/>
       <c r="B46" s="21" t="s">
         <v>202</v>
@@ -24115,7 +24189,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="50"/>
       <c r="B47" s="21" t="s">
         <v>197</v>
@@ -24131,7 +24205,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" s="50"/>
       <c r="B48" s="21" t="s">
         <v>204</v>
@@ -24147,7 +24221,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="50" t="s">
         <v>176</v>
       </c>
@@ -24179,7 +24253,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="50"/>
       <c r="B50" s="21" t="s">
         <v>216</v>
@@ -24209,7 +24283,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="50" t="s">
         <v>168</v>
       </c>
@@ -24241,7 +24315,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="50"/>
       <c r="B52" s="21" t="s">
         <v>215</v>
@@ -24271,7 +24345,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="121.5">
+    <row r="53" spans="1:10" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A53" s="50" t="s">
         <v>169</v>
       </c>
@@ -24303,7 +24377,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="50"/>
       <c r="B54" s="21" t="s">
         <v>217</v>
@@ -24333,7 +24407,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="50"/>
       <c r="B55" s="21" t="s">
         <v>220</v>
@@ -24363,7 +24437,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="50"/>
       <c r="B56" s="21" t="s">
         <v>219</v>
@@ -24393,7 +24467,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="50"/>
       <c r="B57" s="21" t="s">
         <v>215</v>
@@ -24423,7 +24497,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="27">
+    <row r="58" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="50" t="s">
         <v>106</v>
       </c>
@@ -24455,7 +24529,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="50"/>
       <c r="B59" s="21" t="s">
         <v>217</v>
@@ -24485,7 +24559,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" s="50"/>
       <c r="B60" s="21" t="s">
         <v>219</v>
@@ -24515,7 +24589,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" s="50"/>
       <c r="B61" s="21" t="s">
         <v>215</v>
@@ -24545,7 +24619,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" s="50" t="s">
         <v>104</v>
       </c>
@@ -24577,7 +24651,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="50"/>
       <c r="B63" s="21" t="s">
         <v>189</v>
@@ -24607,7 +24681,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" s="50"/>
       <c r="B64" s="21" t="s">
         <v>218</v>
@@ -24638,9 +24712,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J64">
-    <filterColumn colId="7"/>
-  </autoFilter>
+  <autoFilter ref="A1:J64" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <mergeCells count="8">
     <mergeCell ref="A58:A61"/>
     <mergeCell ref="A62:A64"/>
@@ -24657,21 +24729,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>297</v>
       </c>
@@ -24682,7 +24754,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="29" t="s">
         <v>165</v>
       </c>
@@ -24693,7 +24765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="60" t="s">
         <v>166</v>
       </c>
@@ -24704,7 +24776,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="60"/>
       <c r="B4" s="21" t="s">
         <v>189</v>
@@ -24713,7 +24785,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>175</v>
       </c>
@@ -24724,7 +24796,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>176</v>
       </c>
@@ -24735,7 +24807,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>297</v>
       </c>
@@ -24746,7 +24818,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="31" t="s">
         <v>166</v>
       </c>
@@ -24757,7 +24829,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="31" t="s">
         <v>104</v>
       </c>
@@ -24768,7 +24840,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>297</v>
       </c>
@@ -24779,8 +24851,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="56" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="54" t="s">
         <v>166</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -24790,8 +24862,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="57"/>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="55"/>
       <c r="B20" s="21" t="s">
         <v>202</v>
       </c>
@@ -24799,7 +24871,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="29" t="s">
         <v>168</v>
       </c>
@@ -24810,7 +24882,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="29" t="s">
         <v>169</v>
       </c>
@@ -24821,7 +24893,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="29" t="s">
         <v>106</v>
       </c>
@@ -24832,7 +24904,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="43" t="s">
         <v>297</v>
       </c>
@@ -24843,7 +24915,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="61" t="s">
         <v>166</v>
       </c>
@@ -24854,7 +24926,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="61"/>
       <c r="B28" s="45" t="s">
         <v>205</v>
@@ -24863,7 +24935,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="61"/>
       <c r="B29" s="45" t="s">
         <v>205</v>
@@ -24872,7 +24944,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="61"/>
       <c r="B30" s="45" t="s">
         <v>205</v>
@@ -24881,7 +24953,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="61"/>
       <c r="B31" s="45" t="s">
         <v>205</v>
@@ -24890,7 +24962,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="61"/>
       <c r="B32" s="21" t="s">
         <v>196</v>
@@ -24899,7 +24971,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="61"/>
       <c r="B33" s="21" t="s">
         <v>197</v>
@@ -24908,7 +24980,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="61"/>
       <c r="B34" s="21" t="s">
         <v>201</v>
@@ -24917,7 +24989,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="61"/>
       <c r="B35" s="21" t="s">
         <v>202</v>
@@ -24926,7 +24998,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="61"/>
       <c r="B36" s="21" t="s">
         <v>204</v>
@@ -24935,7 +25007,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="43" t="s">
         <v>297</v>
       </c>
@@ -24946,7 +25018,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="27">
+    <row r="40" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="46" t="s">
         <v>165</v>
       </c>
@@ -24957,7 +25029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="61" t="s">
         <v>166</v>
       </c>
@@ -24968,7 +25040,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="61"/>
       <c r="B42" s="21" t="s">
         <v>196</v>
@@ -24977,7 +25049,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="46" t="s">
         <v>168</v>
       </c>
@@ -24988,7 +25060,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="46" t="s">
         <v>169</v>
       </c>
@@ -24999,7 +25071,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="46" t="s">
         <v>104</v>
       </c>
@@ -25023,14 +25095,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:T144"/>
   <sheetViews>
-    <sheetView topLeftCell="M52" workbookViewId="0">
+    <sheetView topLeftCell="M22" workbookViewId="0">
       <selection activeCell="O63" sqref="O63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
@@ -25054,7 +25126,7 @@
     <col min="20" max="20" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" s="63" t="s">
         <v>348</v>
       </c>
@@ -25086,7 +25158,7 @@
       <c r="S1" s="73"/>
       <c r="T1" s="73"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="37" t="s">
         <v>351</v>
       </c>
@@ -25148,7 +25220,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>399</v>
       </c>
@@ -25192,7 +25264,7 @@
       </c>
       <c r="T3" s="36"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>399</v>
       </c>
@@ -25236,7 +25308,7 @@
       </c>
       <c r="T4" s="36"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>399</v>
       </c>
@@ -25280,7 +25352,7 @@
       </c>
       <c r="T5" s="36"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>399</v>
       </c>
@@ -25324,7 +25396,7 @@
       </c>
       <c r="T6" s="36"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>399</v>
       </c>
@@ -25368,7 +25440,7 @@
       </c>
       <c r="T7" s="36"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>399</v>
       </c>
@@ -25412,7 +25484,7 @@
       </c>
       <c r="T8" s="36"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>399</v>
       </c>
@@ -25456,7 +25528,7 @@
       </c>
       <c r="T9" s="36"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>399</v>
       </c>
@@ -25500,7 +25572,7 @@
       </c>
       <c r="T10" s="36"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>399</v>
       </c>
@@ -25544,7 +25616,7 @@
       </c>
       <c r="T11" s="36"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>399</v>
       </c>
@@ -25588,7 +25660,7 @@
       </c>
       <c r="T12" s="36"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>399</v>
       </c>
@@ -25632,7 +25704,7 @@
       </c>
       <c r="T13" s="36"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>399</v>
       </c>
@@ -25676,7 +25748,7 @@
       </c>
       <c r="T14" s="36"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>399</v>
       </c>
@@ -25720,7 +25792,7 @@
       </c>
       <c r="T15" s="36"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>399</v>
       </c>
@@ -25764,7 +25836,7 @@
       </c>
       <c r="T16" s="36"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>399</v>
       </c>
@@ -25808,7 +25880,7 @@
       </c>
       <c r="T17" s="36"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>399</v>
       </c>
@@ -25852,7 +25924,7 @@
       </c>
       <c r="T18" s="36"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>399</v>
       </c>
@@ -25896,7 +25968,7 @@
       </c>
       <c r="T19" s="36"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>399</v>
       </c>
@@ -25940,7 +26012,7 @@
       </c>
       <c r="T20" s="36"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>399</v>
       </c>
@@ -25984,7 +26056,7 @@
       </c>
       <c r="T21" s="36"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>399</v>
       </c>
@@ -26028,7 +26100,7 @@
       </c>
       <c r="T22" s="36"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>399</v>
       </c>
@@ -26072,7 +26144,7 @@
       </c>
       <c r="T23" s="36"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>399</v>
       </c>
@@ -26112,7 +26184,7 @@
       </c>
       <c r="T24" s="36"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>399</v>
       </c>
@@ -26152,7 +26224,7 @@
       </c>
       <c r="T25" s="36"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>399</v>
       </c>
@@ -26192,7 +26264,7 @@
       </c>
       <c r="T26" s="36"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>399</v>
       </c>
@@ -26232,7 +26304,7 @@
       </c>
       <c r="T27" s="36"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -26266,7 +26338,7 @@
       </c>
       <c r="T28" s="36"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -26298,7 +26370,7 @@
       </c>
       <c r="T29" s="36"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -26332,7 +26404,7 @@
       </c>
       <c r="T30" s="36"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -26366,7 +26438,7 @@
       </c>
       <c r="T31" s="36"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -26400,7 +26472,7 @@
       </c>
       <c r="T32" s="36"/>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -26434,7 +26506,7 @@
       </c>
       <c r="T33" s="36"/>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -26468,7 +26540,7 @@
       </c>
       <c r="T34" s="36"/>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -26502,7 +26574,7 @@
       </c>
       <c r="T35" s="36"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -26536,7 +26608,7 @@
       </c>
       <c r="T36" s="36"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -26570,7 +26642,7 @@
       </c>
       <c r="T37" s="36"/>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -26604,7 +26676,7 @@
       </c>
       <c r="T38" s="36"/>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -26638,7 +26710,7 @@
       </c>
       <c r="T39" s="36"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -26672,7 +26744,7 @@
       </c>
       <c r="T40" s="36"/>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -26706,7 +26778,7 @@
       </c>
       <c r="T41" s="36"/>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -26740,7 +26812,7 @@
       </c>
       <c r="T42" s="36"/>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -26774,7 +26846,7 @@
       </c>
       <c r="T43" s="36"/>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -26808,7 +26880,7 @@
       </c>
       <c r="T44" s="36"/>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -26842,7 +26914,7 @@
       </c>
       <c r="T45" s="36"/>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -26876,7 +26948,7 @@
       </c>
       <c r="T46" s="36"/>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -26910,7 +26982,7 @@
       </c>
       <c r="T47" s="36"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -26944,7 +27016,7 @@
       </c>
       <c r="T48" s="36"/>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -26978,7 +27050,7 @@
       </c>
       <c r="T49" s="36"/>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -27012,7 +27084,7 @@
       </c>
       <c r="T50" s="36"/>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -27040,7 +27112,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -27068,7 +27140,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -27096,7 +27168,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -27124,7 +27196,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -27152,7 +27224,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -27180,7 +27252,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -27208,7 +27280,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -27236,7 +27308,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -27264,7 +27336,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -27292,7 +27364,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -27320,7 +27392,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -27348,7 +27420,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -27376,7 +27448,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -27404,7 +27476,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -27432,7 +27504,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -27460,7 +27532,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -27488,7 +27560,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -27516,7 +27588,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -27544,7 +27616,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -27572,7 +27644,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -27600,7 +27672,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -27628,7 +27700,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -27656,7 +27728,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -27684,7 +27756,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -27712,7 +27784,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -27740,7 +27812,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -27768,7 +27840,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -27796,7 +27868,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -27824,7 +27896,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -27852,7 +27924,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -27880,7 +27952,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -27908,7 +27980,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -27936,7 +28008,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -27964,7 +28036,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -27992,7 +28064,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -28020,7 +28092,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -28048,7 +28120,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -28076,7 +28148,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -28104,7 +28176,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -28132,7 +28204,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -28160,7 +28232,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -28188,7 +28260,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -28216,7 +28288,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -28244,7 +28316,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -28272,7 +28344,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -28300,7 +28372,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -28328,7 +28400,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -28356,7 +28428,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -28384,7 +28456,7 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -28412,7 +28484,7 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -28440,7 +28512,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102" spans="1:20">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -28468,7 +28540,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -28496,7 +28568,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104" spans="1:20">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -28524,7 +28596,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -28552,7 +28624,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106" spans="1:20">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -28580,7 +28652,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -28608,7 +28680,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -28636,7 +28708,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109" spans="1:20">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -28664,7 +28736,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110" spans="1:20">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -28692,7 +28764,7 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111" spans="1:20">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -28720,7 +28792,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112" spans="1:20">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -28748,7 +28820,7 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113" spans="1:20">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -28776,7 +28848,7 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114" spans="1:20">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -28798,7 +28870,7 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115" spans="1:20">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -28820,7 +28892,7 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116" spans="1:20">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -28842,7 +28914,7 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117" spans="1:20">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -28864,7 +28936,7 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118" spans="1:20">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -28886,7 +28958,7 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119" spans="1:20">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -28908,7 +28980,7 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120" spans="1:20">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -28930,7 +29002,7 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121" spans="1:20">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -28952,7 +29024,7 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122" spans="1:20">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -28974,7 +29046,7 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123" spans="1:20">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -28996,7 +29068,7 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124" spans="1:20">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -29018,7 +29090,7 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125" spans="1:20">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -29040,7 +29112,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126" spans="1:20">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -29062,7 +29134,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127" spans="1:20">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -29084,7 +29156,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128" spans="1:20">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -29106,7 +29178,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129" spans="1:20">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -29128,7 +29200,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130" spans="1:20">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -29150,7 +29222,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131" spans="1:20">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -29172,7 +29244,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132" spans="1:20">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -29194,7 +29266,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133" spans="1:20">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -29216,7 +29288,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134" spans="1:20">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -29238,7 +29310,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135" spans="1:20">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -29260,7 +29332,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136" spans="1:20">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -29282,7 +29354,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137" spans="1:20">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -29304,7 +29376,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138" spans="1:20">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -29326,7 +29398,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139" spans="1:20">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -29348,7 +29420,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140" spans="1:20">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -29370,7 +29442,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141" spans="1:20">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -29392,7 +29464,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142" spans="1:20">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -29414,7 +29486,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143" spans="1:20">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -29436,7 +29508,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144" spans="1:20">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -29469,4 +29541,249 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BB19B7-4F9D-4250-8B8C-9D9708D06C63}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="3" max="3" width="29.125" customWidth="1"/>
+    <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="53.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="E1" s="74" t="s">
+        <v>478</v>
+      </c>
+      <c r="F1" s="74" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A2" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>479</v>
+      </c>
+      <c r="E2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F2" s="75" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A3" s="50"/>
+      <c r="B3" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F3" s="75" t="s">
+        <v>484</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34969C4C-14C6-4131-B2E9-127A8A8C2EA5}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
+    <col min="7" max="7" width="55.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="E1" s="74" t="s">
+        <v>478</v>
+      </c>
+      <c r="F1" s="74" t="s">
+        <v>480</v>
+      </c>
+      <c r="G1" s="74" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>479</v>
+      </c>
+      <c r="E2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F2" t="s">
+        <v>481</v>
+      </c>
+      <c r="G2" s="75"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="50"/>
+      <c r="B3" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E3" t="s">
+        <v>357</v>
+      </c>
+      <c r="F3" t="s">
+        <v>482</v>
+      </c>
+      <c r="G3" s="75"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="50"/>
+      <c r="B4" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>479</v>
+      </c>
+      <c r="E4" t="s">
+        <v>357</v>
+      </c>
+      <c r="F4" t="s">
+        <v>483</v>
+      </c>
+      <c r="G4" s="75"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="50"/>
+      <c r="B5" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>479</v>
+      </c>
+      <c r="E5" t="s">
+        <v>357</v>
+      </c>
+      <c r="F5" t="s">
+        <v>481</v>
+      </c>
+      <c r="G5" s="75"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="50"/>
+      <c r="B6" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>479</v>
+      </c>
+      <c r="E6" t="s">
+        <v>357</v>
+      </c>
+      <c r="F6" t="s">
+        <v>482</v>
+      </c>
+      <c r="G6" s="75"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="50"/>
+      <c r="B7" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>479</v>
+      </c>
+      <c r="E7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F7" t="s">
+        <v>483</v>
+      </c>
+      <c r="G7" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>